--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2310.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2310.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.361339947848431</v>
+        <v>0.8302608728408813</v>
       </c>
       <c r="B1">
-        <v>1.915109069210134</v>
+        <v>1.245790362358093</v>
       </c>
       <c r="C1">
-        <v>1.692968717441062</v>
+        <v>2.250858068466187</v>
       </c>
       <c r="D1">
-        <v>1.851211238796683</v>
+        <v>2.353326559066772</v>
       </c>
       <c r="E1">
-        <v>2.285362556553729</v>
+        <v>1.956781506538391</v>
       </c>
     </row>
   </sheetData>
